--- a/biology/Zoologie/Aname_inimica/Aname_inimica.xlsx
+++ b/biology/Zoologie/Aname_inimica/Aname_inimica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aname inimica est une espèce d'araignées mygalomorphes de la famille des Anamidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aname inimica est une espèce d'araignées mygalomorphes de la famille des Anamidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie[1]. Elle se rencontre en Nouvelle-Galles du Sud vers Armidale et au Queensland vers Weengallon[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre en Nouvelle-Galles du Sud vers Armidale et au Queensland vers Weengallon.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 8,88 mm de long sur 7,50 mm et l'abdomen 8,00 mm de long sur 5,63 mm et la carapace de la femelle paratype mesure 9,52 mm de long sur 7,93 mm et l'abdomen 11,40 mm de long sur 6,50 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 8,88 mm de long sur 7,50 mm et l'abdomen 8,00 mm de long sur 5,63 mm et la carapace de la femelle paratype mesure 9,52 mm de long sur 7,93 mm et l'abdomen 11,40 mm de long sur 6,50 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Raven, 1985 : A revision of the Aname pallida species-group in northern Australia. Australian Journal of Zoology, vol. 33, no 3, p. 377-409.</t>
         </is>
